--- a/市場_2025改修/詳細設計_2025/23_詳細設計書(バックアップ).xlsx
+++ b/市場_2025改修/詳細設計_2025/23_詳細設計書(バックアップ).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts\Documents\サントク\202205姫路市VBA\200_2025改修\v0\詳細設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC50E26-11A5-4948-A9A0-5C460C8AA448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD603A93-A794-4ACB-BE34-5D504410C251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>作成者</t>
   </si>
@@ -650,6 +650,16 @@
   </si>
   <si>
     <t>売上高割データブック      Cells(52, 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座、売上高割追加</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -661,7 +671,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -742,6 +752,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1074,7 +1091,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1225,6 +1242,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1240,44 +1266,59 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1297,73 +1338,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1373,6 +1384,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1382,23 +1411,17 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1837,50 +1860,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="60"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1903,10 +1926,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="55"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -1929,42 +1952,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="55"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="54" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="55"/>
-      <c r="H15" s="61" t="s">
+      <c r="H15" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="54" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="55"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="54" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="55"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="63"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
       <c r="N17" s="7" t="s">
         <v>25</v>
       </c>
@@ -1994,6 +2017,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2002,12 +2031,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2022,7 +2045,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="F7" sqref="F7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -2036,52 +2059,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -2107,427 +2130,437 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
+      <c r="B5" s="113">
+        <v>45001</v>
+      </c>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
+      <c r="B6" s="115">
+        <v>45889</v>
+      </c>
+      <c r="C6" s="115"/>
+      <c r="D6" s="114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="114"/>
+      <c r="F6" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2538,30 +2571,46 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I11:R11"/>
     <mergeCell ref="I12:R12"/>
     <mergeCell ref="B9:C9"/>
@@ -2578,46 +2627,30 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2643,213 +2676,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="81" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="87" t="str">
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="73" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="85" t="s">
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="80" t="s">
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="85" t="s">
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="85"/>
-      <c r="AX1" s="85"/>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="85"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="80"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="81" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="82" t="str">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="78" t="str">
         <f>表紙!H15</f>
         <v>バックアップ</v>
       </c>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="85" t="s">
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="86">
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="81">
         <v>44752</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="85" t="s">
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="77"/>
+      <c r="AV2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
-      <c r="BA2" s="80"/>
-      <c r="BB2" s="80"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="80"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="76"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="77"/>
+      <c r="BB2" s="77"/>
+      <c r="BC2" s="77"/>
+      <c r="BD2" s="77"/>
+      <c r="BE2" s="77"/>
+      <c r="BF2" s="77"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="77" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="87"/>
+      <c r="AO3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="78"/>
-      <c r="AT3" s="78"/>
-      <c r="AU3" s="78"/>
-      <c r="AV3" s="78"/>
-      <c r="AW3" s="78"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="78"/>
-      <c r="BA3" s="78"/>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="78"/>
-      <c r="BD3" s="78"/>
-      <c r="BE3" s="78"/>
-      <c r="BF3" s="79"/>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86"/>
+      <c r="AR3" s="86"/>
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="86"/>
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="86"/>
+      <c r="AY3" s="86"/>
+      <c r="AZ3" s="86"/>
+      <c r="BA3" s="86"/>
+      <c r="BB3" s="86"/>
+      <c r="BC3" s="86"/>
+      <c r="BD3" s="86"/>
+      <c r="BE3" s="86"/>
+      <c r="BF3" s="87"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -2860,146 +2893,146 @@
     <row r="5" spans="1:58">
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="74" t="s">
+      <c r="AO5" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="75" t="s">
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="AV5" s="75"/>
-      <c r="AW5" s="75"/>
-      <c r="AX5" s="75"/>
-      <c r="AY5" s="75"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="75"/>
-      <c r="BB5" s="75"/>
-      <c r="BC5" s="75"/>
-      <c r="BD5" s="75"/>
-      <c r="BE5" s="75"/>
-      <c r="BF5" s="76"/>
+      <c r="AV5" s="83"/>
+      <c r="AW5" s="83"/>
+      <c r="AX5" s="83"/>
+      <c r="AY5" s="83"/>
+      <c r="AZ5" s="83"/>
+      <c r="BA5" s="83"/>
+      <c r="BB5" s="83"/>
+      <c r="BC5" s="83"/>
+      <c r="BD5" s="83"/>
+      <c r="BE5" s="83"/>
+      <c r="BF5" s="84"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="74"/>
-      <c r="AP6" s="64"/>
-      <c r="AQ6" s="64"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="75"/>
-      <c r="AV6" s="75"/>
-      <c r="AW6" s="75"/>
-      <c r="AX6" s="75"/>
-      <c r="AY6" s="75"/>
-      <c r="AZ6" s="75"/>
-      <c r="BA6" s="75"/>
-      <c r="BB6" s="75"/>
-      <c r="BC6" s="75"/>
-      <c r="BD6" s="75"/>
-      <c r="BE6" s="75"/>
-      <c r="BF6" s="76"/>
+      <c r="AO6" s="82"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="66"/>
+      <c r="AS6" s="66"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="83"/>
+      <c r="AV6" s="83"/>
+      <c r="AW6" s="83"/>
+      <c r="AX6" s="83"/>
+      <c r="AY6" s="83"/>
+      <c r="AZ6" s="83"/>
+      <c r="BA6" s="83"/>
+      <c r="BB6" s="83"/>
+      <c r="BC6" s="83"/>
+      <c r="BD6" s="83"/>
+      <c r="BE6" s="83"/>
+      <c r="BF6" s="84"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="74" t="s">
+      <c r="AO7" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="64"/>
-      <c r="AR7" s="64"/>
-      <c r="AS7" s="64"/>
-      <c r="AT7" s="64"/>
-      <c r="AU7" s="75" t="s">
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="AV7" s="75"/>
-      <c r="AW7" s="75"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="75"/>
-      <c r="AZ7" s="75"/>
-      <c r="BA7" s="75"/>
-      <c r="BB7" s="75"/>
-      <c r="BC7" s="75"/>
-      <c r="BD7" s="75"/>
-      <c r="BE7" s="75"/>
-      <c r="BF7" s="76"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BA7" s="83"/>
+      <c r="BB7" s="83"/>
+      <c r="BC7" s="83"/>
+      <c r="BD7" s="83"/>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="84"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="75"/>
-      <c r="AV8" s="75"/>
-      <c r="AW8" s="75"/>
-      <c r="AX8" s="75"/>
-      <c r="AY8" s="75"/>
-      <c r="AZ8" s="75"/>
-      <c r="BA8" s="75"/>
-      <c r="BB8" s="75"/>
-      <c r="BC8" s="75"/>
-      <c r="BD8" s="75"/>
-      <c r="BE8" s="75"/>
-      <c r="BF8" s="76"/>
+      <c r="AO8" s="82"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="83"/>
+      <c r="AW8" s="83"/>
+      <c r="AX8" s="83"/>
+      <c r="AY8" s="83"/>
+      <c r="AZ8" s="83"/>
+      <c r="BA8" s="83"/>
+      <c r="BB8" s="83"/>
+      <c r="BC8" s="83"/>
+      <c r="BD8" s="83"/>
+      <c r="BE8" s="83"/>
+      <c r="BF8" s="84"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="2"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="74" t="s">
+      <c r="AO9" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="AP9" s="64"/>
-      <c r="AQ9" s="64"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="64"/>
-      <c r="AT9" s="64"/>
-      <c r="AU9" s="75" t="s">
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="AV9" s="75"/>
-      <c r="AW9" s="75"/>
-      <c r="AX9" s="75"/>
-      <c r="AY9" s="75"/>
-      <c r="AZ9" s="75"/>
-      <c r="BA9" s="75"/>
-      <c r="BB9" s="75"/>
-      <c r="BC9" s="75"/>
-      <c r="BD9" s="75"/>
-      <c r="BE9" s="75"/>
-      <c r="BF9" s="76"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="83"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="83"/>
+      <c r="BF9" s="84"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="75"/>
-      <c r="AV10" s="75"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="75"/>
-      <c r="BA10" s="75"/>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="75"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="75"/>
-      <c r="BF10" s="76"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="83"/>
+      <c r="AX10" s="83"/>
+      <c r="AY10" s="83"/>
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="83"/>
+      <c r="BC10" s="83"/>
+      <c r="BD10" s="83"/>
+      <c r="BE10" s="83"/>
+      <c r="BF10" s="84"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
@@ -3425,11 +3458,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="U2:AI2"/>
@@ -3438,14 +3474,11 @@
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3471,27 +3504,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97" t="str">
+      <c r="D1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="99"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3504,24 +3537,24 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="100" t="str">
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="96" t="str">
         <f>表紙!H15</f>
         <v>バックアップ</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -3534,42 +3567,42 @@
       <c r="Q2" s="37"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91" t="s">
+      <c r="D4" s="88"/>
+      <c r="E4" s="88" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91" t="s">
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="38" t="s">
         <v>40</v>
       </c>
@@ -3585,23 +3618,23 @@
       <c r="J5" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="91"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="40" t="s">
         <v>46</v>
       </c>
@@ -3610,25 +3643,25 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="91"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="40" t="s">
         <v>46</v>
       </c>
@@ -3637,25 +3670,25 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="91"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="40" t="s">
         <v>47</v>
       </c>
@@ -3664,103 +3697,81 @@
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
-      <c r="K8" s="92" t="s">
+      <c r="K8" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="91"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="40"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="40"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="40"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:Q9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A10:B10"/>
@@ -3769,6 +3780,28 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3784,7 +3817,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="C19" sqref="C19:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3794,27 +3827,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97" t="str">
+      <c r="D1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="99"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3829,24 +3862,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="100" t="str">
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="96" t="str">
         <f>表紙!H15</f>
         <v>バックアップ</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -3861,69 +3894,69 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="114"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="45"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="111"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="109"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="41" t="s">
@@ -3932,623 +3965,615 @@
       <c r="B7" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="114"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="106"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="105"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="103"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="43"/>
       <c r="B9" s="44"/>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="105"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="103"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="43"/>
       <c r="B10" s="44"/>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="105"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="103"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="105"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="103"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="105"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="103"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="43"/>
       <c r="B13" s="44"/>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="105"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="103"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="43"/>
       <c r="B14" s="44"/>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="105"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="103"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="105"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="103"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="108"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="112"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="108"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="112"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="106" t="s">
+      <c r="C18" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="108"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="112"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="108"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="112"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="43"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="105"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="103"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="103" t="s">
+      <c r="C21" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="105"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="103"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="43"/>
       <c r="B22" s="44"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="105"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="103"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="43"/>
       <c r="B23" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="105"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="103"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="43"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="105"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="103"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
-      <c r="C25" s="103" t="s">
+      <c r="C25" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="105"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="103"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="105"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="103"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="43"/>
       <c r="B27" s="44"/>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="108"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="112"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="43"/>
       <c r="B28" s="44"/>
-      <c r="C28" s="106" t="s">
+      <c r="C28" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="108"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="112"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="43"/>
       <c r="B29" s="44"/>
-      <c r="C29" s="106" t="s">
+      <c r="C29" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="108"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="112"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="43"/>
       <c r="B30" s="44"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="105"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="103"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="43"/>
       <c r="B31" s="44"/>
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="105"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="103"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="111"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="109"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="42"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="114"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="106"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="43"/>
       <c r="B34" s="44"/>
-      <c r="C34" s="103" t="s">
+      <c r="C34" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="105"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="103"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="111"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="108"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="C13:Q13"/>
-    <mergeCell ref="C24:Q24"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C19:Q19"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C31:Q31"/>
+    <mergeCell ref="C32:Q32"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C29:Q29"/>
     <mergeCell ref="C33:Q33"/>
     <mergeCell ref="C34:Q34"/>
     <mergeCell ref="C35:Q35"/>
@@ -4565,13 +4590,21 @@
     <mergeCell ref="C22:Q22"/>
     <mergeCell ref="C23:Q23"/>
     <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C31:Q31"/>
-    <mergeCell ref="C32:Q32"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C12:Q12"/>
+    <mergeCell ref="C13:Q13"/>
+    <mergeCell ref="C24:Q24"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C18:Q18"/>
+    <mergeCell ref="C19:Q19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/市場_2025改修/詳細設計_2025/23_詳細設計書(バックアップ).xlsx
+++ b/市場_2025改修/詳細設計_2025/23_詳細設計書(バックアップ).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD603A93-A794-4ACB-BE34-5D504410C251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0709B5A2-AC46-429D-A8F4-5EA23C2583E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,7 +671,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -759,6 +759,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1091,7 +1098,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1242,6 +1249,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1251,20 +1273,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1272,28 +1303,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1302,45 +1357,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1371,10 +1394,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1384,6 +1403,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1393,35 +1430,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1860,50 +1876,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="63"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="60"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1926,10 +1942,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -1952,42 +1968,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="54" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="55"/>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="54" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="54" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
       <c r="N17" s="7" t="s">
         <v>25</v>
       </c>
@@ -2017,12 +2033,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2031,6 +2041,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2059,52 +2075,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -2130,47 +2146,47 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="113">
+      <c r="B5" s="67">
         <v>45001</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="71"/>
       <c r="J5" s="71"/>
       <c r="K5" s="71"/>
@@ -2186,381 +2202,381 @@
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="69">
         <v>45889</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="114" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="116" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2571,14 +2587,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -2595,62 +2659,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2676,213 +2692,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="72" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="73" t="str">
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="89" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="76" t="s">
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="77" t="s">
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="76" t="s">
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="82"/>
+      <c r="AS1" s="82"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="87"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="72" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="78" t="str">
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="84" t="str">
         <f>表紙!H15</f>
         <v>バックアップ</v>
       </c>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="76" t="s">
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="81">
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="88">
         <v>44752</v>
       </c>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="76" t="s">
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="76"/>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="77"/>
-      <c r="BD2" s="77"/>
-      <c r="BE2" s="77"/>
-      <c r="BF2" s="77"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="87"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="87"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="87"/>
-      <c r="AO3" s="85" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="86"/>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="86"/>
-      <c r="AU3" s="86"/>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="86"/>
-      <c r="BA3" s="86"/>
-      <c r="BB3" s="86"/>
-      <c r="BC3" s="86"/>
-      <c r="BD3" s="86"/>
-      <c r="BE3" s="86"/>
-      <c r="BF3" s="87"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="80"/>
+      <c r="AU3" s="80"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80"/>
+      <c r="AX3" s="80"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80"/>
+      <c r="BA3" s="80"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="81"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -2893,146 +2909,146 @@
     <row r="5" spans="1:58">
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="82" t="s">
+      <c r="AO5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66"/>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="66"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="83" t="s">
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="AV5" s="83"/>
-      <c r="AW5" s="83"/>
-      <c r="AX5" s="83"/>
-      <c r="AY5" s="83"/>
-      <c r="AZ5" s="83"/>
-      <c r="BA5" s="83"/>
-      <c r="BB5" s="83"/>
-      <c r="BC5" s="83"/>
-      <c r="BD5" s="83"/>
-      <c r="BE5" s="83"/>
-      <c r="BF5" s="84"/>
+      <c r="AV5" s="77"/>
+      <c r="AW5" s="77"/>
+      <c r="AX5" s="77"/>
+      <c r="AY5" s="77"/>
+      <c r="AZ5" s="77"/>
+      <c r="BA5" s="77"/>
+      <c r="BB5" s="77"/>
+      <c r="BC5" s="77"/>
+      <c r="BD5" s="77"/>
+      <c r="BE5" s="77"/>
+      <c r="BF5" s="78"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="82"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="83"/>
-      <c r="AV6" s="83"/>
-      <c r="AW6" s="83"/>
-      <c r="AX6" s="83"/>
-      <c r="AY6" s="83"/>
-      <c r="AZ6" s="83"/>
-      <c r="BA6" s="83"/>
-      <c r="BB6" s="83"/>
-      <c r="BC6" s="83"/>
-      <c r="BD6" s="83"/>
-      <c r="BE6" s="83"/>
-      <c r="BF6" s="84"/>
+      <c r="AO6" s="76"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="77"/>
+      <c r="AV6" s="77"/>
+      <c r="AW6" s="77"/>
+      <c r="AX6" s="77"/>
+      <c r="AY6" s="77"/>
+      <c r="AZ6" s="77"/>
+      <c r="BA6" s="77"/>
+      <c r="BB6" s="77"/>
+      <c r="BC6" s="77"/>
+      <c r="BD6" s="77"/>
+      <c r="BE6" s="77"/>
+      <c r="BF6" s="78"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="82" t="s">
+      <c r="AO7" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="83" t="s">
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="64"/>
+      <c r="AU7" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AV7" s="83"/>
-      <c r="AW7" s="83"/>
-      <c r="AX7" s="83"/>
-      <c r="AY7" s="83"/>
-      <c r="AZ7" s="83"/>
-      <c r="BA7" s="83"/>
-      <c r="BB7" s="83"/>
-      <c r="BC7" s="83"/>
-      <c r="BD7" s="83"/>
-      <c r="BE7" s="83"/>
-      <c r="BF7" s="84"/>
+      <c r="AV7" s="77"/>
+      <c r="AW7" s="77"/>
+      <c r="AX7" s="77"/>
+      <c r="AY7" s="77"/>
+      <c r="AZ7" s="77"/>
+      <c r="BA7" s="77"/>
+      <c r="BB7" s="77"/>
+      <c r="BC7" s="77"/>
+      <c r="BD7" s="77"/>
+      <c r="BE7" s="77"/>
+      <c r="BF7" s="78"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="82"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="83"/>
-      <c r="AV8" s="83"/>
-      <c r="AW8" s="83"/>
-      <c r="AX8" s="83"/>
-      <c r="AY8" s="83"/>
-      <c r="AZ8" s="83"/>
-      <c r="BA8" s="83"/>
-      <c r="BB8" s="83"/>
-      <c r="BC8" s="83"/>
-      <c r="BD8" s="83"/>
-      <c r="BE8" s="83"/>
-      <c r="BF8" s="84"/>
+      <c r="AO8" s="76"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="77"/>
+      <c r="AV8" s="77"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="77"/>
+      <c r="AY8" s="77"/>
+      <c r="AZ8" s="77"/>
+      <c r="BA8" s="77"/>
+      <c r="BB8" s="77"/>
+      <c r="BC8" s="77"/>
+      <c r="BD8" s="77"/>
+      <c r="BE8" s="77"/>
+      <c r="BF8" s="78"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="2"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="82" t="s">
+      <c r="AO9" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="83" t="s">
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="83"/>
-      <c r="BF9" s="84"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77"/>
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="77"/>
+      <c r="BD9" s="77"/>
+      <c r="BE9" s="77"/>
+      <c r="BF9" s="78"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="82"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="83"/>
-      <c r="AY10" s="83"/>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="83"/>
-      <c r="BB10" s="83"/>
-      <c r="BC10" s="83"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="83"/>
-      <c r="BF10" s="84"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="77"/>
+      <c r="BA10" s="77"/>
+      <c r="BB10" s="77"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
+      <c r="BF10" s="78"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
@@ -3458,6 +3474,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="AO9:AT10"/>
     <mergeCell ref="AU9:BF10"/>
     <mergeCell ref="A3:AN3"/>
@@ -3466,19 +3495,6 @@
     <mergeCell ref="AU5:BF6"/>
     <mergeCell ref="AO7:AT8"/>
     <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3504,27 +3520,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93" t="str">
+      <c r="D1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3537,24 +3553,24 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="96" t="str">
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="102" t="str">
         <f>表紙!H15</f>
         <v>バックアップ</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -3567,42 +3583,42 @@
       <c r="Q2" s="37"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88" t="s">
+      <c r="D4" s="93"/>
+      <c r="E4" s="93" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88" t="s">
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="38" t="s">
         <v>40</v>
       </c>
@@ -3618,23 +3634,23 @@
       <c r="J5" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="88"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="40" t="s">
         <v>46</v>
       </c>
@@ -3643,25 +3659,25 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="99" t="s">
+      <c r="K6" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="88"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="40" t="s">
         <v>46</v>
       </c>
@@ -3670,25 +3686,25 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="99" t="s">
+      <c r="K7" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="88"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="40" t="s">
         <v>47</v>
       </c>
@@ -3697,81 +3713,103 @@
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
-      <c r="K8" s="99" t="s">
+      <c r="K8" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="40"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="40"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="40"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="100"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:Q9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A10:B10"/>
@@ -3780,28 +3818,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3816,8 +3832,8 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3827,27 +3843,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93" t="str">
+      <c r="D1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3862,24 +3878,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="96" t="str">
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="102" t="str">
         <f>表紙!H15</f>
         <v>バックアップ</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -3894,69 +3910,69 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="116"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="45"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="109"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="113"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="41" t="s">
@@ -3965,615 +3981,623 @@
       <c r="B7" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="106"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="116"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="103"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="107"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="43"/>
       <c r="B9" s="44"/>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="103"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="107"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="43"/>
       <c r="B10" s="44"/>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="103"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="107"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="103"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="107"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="103"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="107"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="43"/>
       <c r="B13" s="44"/>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="103"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="107"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="43"/>
       <c r="B14" s="44"/>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="103"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="107"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="103"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="107"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="112"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="110"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="110" t="s">
+      <c r="C17" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="112"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="110"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="110" t="s">
+      <c r="C18" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="112"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="119"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="112"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="119"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="43"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="103"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="107"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="103"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="107"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="43"/>
       <c r="B22" s="44"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="103"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="107"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="43"/>
       <c r="B23" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="103"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="107"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="43"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="103"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="107"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="103"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="107"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="103"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="107"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="43"/>
       <c r="B27" s="44"/>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="112"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="110"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="43"/>
       <c r="B28" s="44"/>
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="112"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="119"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="43"/>
       <c r="B29" s="44"/>
-      <c r="C29" s="110" t="s">
+      <c r="C29" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="112"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="118"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="119"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="43"/>
       <c r="B30" s="44"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="102"/>
-      <c r="O30" s="102"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="103"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="107"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="43"/>
       <c r="B31" s="44"/>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="102"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="103"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="107"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="109"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="113"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="42"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="105"/>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="106"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="116"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="43"/>
       <c r="B34" s="44"/>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="103"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="107"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="109"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C31:Q31"/>
-    <mergeCell ref="C32:Q32"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C12:Q12"/>
+    <mergeCell ref="C13:Q13"/>
+    <mergeCell ref="C24:Q24"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C18:Q18"/>
+    <mergeCell ref="C19:Q19"/>
     <mergeCell ref="C33:Q33"/>
     <mergeCell ref="C34:Q34"/>
     <mergeCell ref="C35:Q35"/>
@@ -4590,21 +4614,13 @@
     <mergeCell ref="C22:Q22"/>
     <mergeCell ref="C23:Q23"/>
     <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="C13:Q13"/>
-    <mergeCell ref="C24:Q24"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C19:Q19"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C31:Q31"/>
+    <mergeCell ref="C32:Q32"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C29:Q29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
